--- a/doc/ショッピングカート詳細設計.xlsx
+++ b/doc/ショッピングカート詳細設計.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\systena\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\ShopingCart\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>詳細設計書</t>
     <rPh sb="0" eb="2">
@@ -448,6 +448,46 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>セッションからCart取得</t>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションからCart取得出来なかった場合新規で設定</t>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mavにCart設定する</t>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>show</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートをセッションに追加する</t>
+  </si>
 </sst>
 </file>
 
@@ -456,7 +496,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -553,6 +593,29 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -704,7 +767,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -813,6 +876,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -835,6 +910,80 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>51434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>350519</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>59227</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3667124" y="3571874"/>
+          <a:ext cx="1560195" cy="1181273"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ListForm</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1330,80 +1479,6 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>657224</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>74467</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4772024" y="3667124"/>
-          <a:ext cx="1743075" cy="1207943"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ListForm</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>657224</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
@@ -1429,7 +1504,7 @@
         <a:noFill/>
         <a:ln w="19050">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -1452,6 +1527,111 @@
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> itemId : int</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- num : int</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -1989,128 +2169,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>657224</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>528637</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>166254</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2028824" y="6572250"/>
-          <a:ext cx="2614613" cy="966354"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>カートを別画面にする場合は</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>クラスを追加</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>620713</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>99146</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4848224" y="4076700"/>
-          <a:ext cx="1258889" cy="308696"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>？</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>666749</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -2363,63 +2421,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>630238</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>137246</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="正方形/長方形 56"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4857749" y="4457700"/>
-          <a:ext cx="1258889" cy="308696"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>？</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2925,8 +2926,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2914650" y="1543050"/>
-          <a:ext cx="2266950" cy="0"/>
+          <a:off x="2606040" y="1508760"/>
+          <a:ext cx="3764280" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3059,30 +3060,38 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvPr id="63" name="正方形/長方形 62"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3228975" y="3381375"/>
-          <a:ext cx="2581276" cy="809625"/>
+          <a:off x="2468880" y="5753100"/>
+          <a:ext cx="259080" cy="632460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3101,25 +3110,111 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>カートを同じ画面に表示する場合は</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>カートについての処理を追加する</a:t>
-          </a:r>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="カギ線コネクタ 63"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2678430" y="5955030"/>
+          <a:ext cx="335280" cy="236220"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="直線矢印コネクタ 64"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2712720" y="6225540"/>
+          <a:ext cx="259080" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3414,145 +3509,11 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3267075" y="2505075"/>
-          <a:ext cx="2447925" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>？？？</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3476624" y="1276350"/>
-          <a:ext cx="2581276" cy="1895475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>？？？</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t/>
-          </a:r>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:br>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>（カート表示を別画面にする場合は</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>表示シーケンスを記載する）</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -3563,7 +3524,7 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3623,8 +3584,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1943100" y="514350"/>
-          <a:ext cx="1295400" cy="342900"/>
+          <a:off x="1828800" y="502920"/>
+          <a:ext cx="1219200" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3660,12 +3621,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>　　　　</a:t>
+            <a:t>List</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -3695,7 +3656,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3801,13 +3762,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3850,30 +3811,348 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1142999" y="942975"/>
-          <a:ext cx="619126" cy="238125"/>
+          <a:off x="2476500" y="2667000"/>
+          <a:ext cx="259080" cy="632460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2743200" y="2598420"/>
+          <a:ext cx="5166360" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="カギ線コネクタ 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2701290" y="2876550"/>
+          <a:ext cx="335280" cy="236220"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2743200" y="3147060"/>
+          <a:ext cx="259080" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2743200" y="3025140"/>
+          <a:ext cx="5128260" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8191500" y="838200"/>
+          <a:ext cx="7620" cy="3596640"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9555480" y="502920"/>
+          <a:ext cx="1158240" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3897,9 +4176,21 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>？？？</a:t>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Cart</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3907,30 +4198,38 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2124074" y="581025"/>
-          <a:ext cx="476251" cy="180975"/>
+          <a:off x="7894320" y="2392680"/>
+          <a:ext cx="541020" cy="1013460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3949,14 +4248,11 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>？？？</a:t>
-          </a:r>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4254,9 +4550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E5:P12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -4363,9 +4657,7 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4520,9 +4812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:P30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4678,9 +4968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:Z20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -4699,17 +4987,20 @@
         <v>25</v>
       </c>
     </row>
+    <row r="14" spans="4:26" x14ac:dyDescent="0.2">
+      <c r="K14" s="38" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="15" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="K15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="K18" t="s">
+      <c r="K15" s="36"/>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="37" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>18</v>
       </c>
@@ -4717,7 +5008,8 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4725,9 +5017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -4754,6 +5044,11 @@
     <row r="14" spans="4:11" x14ac:dyDescent="0.2">
       <c r="K14" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="K16" s="39" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="11:11" x14ac:dyDescent="0.2">
@@ -4770,17 +5065,44 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="E7:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="25" width="4.44140625" customWidth="1"/>
+    <col min="26" max="29" width="4.21875"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="7" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E7" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="K10" s="36"/>
+    </row>
+    <row r="11" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="K11" s="38"/>
+      <c r="L11" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="K15" s="36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="39"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
